--- a/data/output/flood_report.xlsx
+++ b/data/output/flood_report.xlsx
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>General Assistance</t>
+          <t>Rescue</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
